--- a/2018_data/Tony_Lippett2018.xlsx
+++ b/2018_data/Tony_Lippett2018.xlsx
@@ -12,74 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>https://www.pro-football-reference.com/players/L/LippTo00/gamelog/2018/</t>
-  </si>
-  <si>
-    <t>2018-12-02</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>26.153</t>
-  </si>
-  <si>
-    <t>NYG</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>W 30-27</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2018-12-23</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>26.174</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>L 27-28</t>
-  </si>
-  <si>
-    <t>2018-12-30</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>26.181</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>L 35-36</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,163 +353,298 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Lippett</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2018-12-02</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>26.153</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>W 30-27</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s"/>
-      <c r="O1" t="s"/>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lippett</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2018-12-23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>26.174</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>L 27-28</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lippett</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2018-12-30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>26.181</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>L 35-36</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
         <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
